--- a/Data/CV/Plots_CV.xlsx
+++ b/Data/CV/Plots_CV.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FB345-A06D-42E2-842B-0E70DF9B18D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0651636B-FF5B-4AA3-B78A-CF8E50556E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="PolyCrystalline(Small)" sheetId="4" r:id="rId2"/>
-    <sheet name="MonoCrystalline(new Small)" sheetId="3" r:id="rId3"/>
-    <sheet name="PolyCrystalline (BIG)" sheetId="2" r:id="rId4"/>
+    <sheet name="PolyCrystalline(Small)" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="MonoCrystalline(new Small)" sheetId="3" r:id="rId2"/>
+    <sheet name="PolyCrystalline (BIG)" sheetId="2" r:id="rId3"/>
+    <sheet name="Collection of data" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="A">Sheet1!$B$27</definedName>
-    <definedName name="e1_">Sheet1!$C$27</definedName>
-    <definedName name="epsilon">Sheet1!$B$29</definedName>
-    <definedName name="epsilon0">Sheet1!$C$29</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$B$3:$D$23</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$E$3:$G$23</definedName>
+    <definedName name="A">'Collection of data'!$B$27</definedName>
+    <definedName name="e1_">'Collection of data'!$C$27</definedName>
+    <definedName name="epsilon">'Collection of data'!$B$29</definedName>
+    <definedName name="epsilon0">'Collection of data'!$C$29</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Collection of data'!$B$3:$D$23</definedName>
+    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Collection of data'!$E$3:$G$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Column1</t>
   </si>
@@ -135,11 +136,35 @@
   <si>
     <t>Solar Cell (Monocrystalline)</t>
   </si>
+  <si>
+    <t>Type-&gt;</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>err in slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>err in intercept</t>
+  </si>
+  <si>
+    <t>Monocrystalline</t>
+  </si>
+  <si>
+    <t>Poly crystalline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +400,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +456,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -441,63 +469,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -593,6 +564,63 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -772,7 +800,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:f>'PolyCrystalline(Small)'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -841,69 +869,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$23</c:f>
+              <c:f>'PolyCrystalline(Small)'!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.2429774415197086</c:v>
+                  <c:v>2.9360687733668103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2455257776348825</c:v>
+                  <c:v>2.4637102209048707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9876840651427448</c:v>
+                  <c:v>1.8200597252840849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3818913576413863</c:v>
+                  <c:v>1.6047302881638101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2512284850034066</c:v>
+                  <c:v>1.5115745734482153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3689578617282985</c:v>
+                  <c:v>1.2036347278128472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2293783608136977</c:v>
+                  <c:v>1.0915636016749315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.475190973912972</c:v>
+                  <c:v>0.99718529100363618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.171812597045828</c:v>
+                  <c:v>0.84106472106853403</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7663193500032897</c:v>
+                  <c:v>0.79737373279217338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7478893168580969</c:v>
+                  <c:v>0.68567827748468912</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2007165394566464</c:v>
+                  <c:v>0.65187173353291905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8255556634067096</c:v>
+                  <c:v>0.59119827850934548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3169761317619351</c:v>
+                  <c:v>0.55062791416604862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2095121161391758</c:v>
+                  <c:v>0.51919937917546244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9857149038634416</c:v>
+                  <c:v>0.47704853179044898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0469844848366021</c:v>
+                  <c:v>0.45209212810384447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.806246804629871</c:v>
+                  <c:v>0.41945691890042708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2223161517424188</c:v>
+                  <c:v>0.4021363719528665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0662830414229809</c:v>
+                  <c:v>0.37188929424412431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +939,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F776-4D06-8311-0D271A62302E}"/>
+              <c16:uniqueId val="{00000000-7A15-43A5-995B-C22221E9EC8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1397,9 +1425,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1453,7 +1479,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:f>'PolyCrystalline(Small)'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1522,69 +1548,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$23</c:f>
+              <c:f>'PolyCrystalline(Small)'!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.6378435835880997E-2</c:v>
+                  <c:v>0.11600255418309843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5636692225514617E-2</c:v>
+                  <c:v>0.1647482270348721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2886657816162109E-2</c:v>
+                  <c:v>0.30187609318024178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4524718552324987E-2</c:v>
+                  <c:v>0.38832549150400675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.558993921723424E-2</c:v>
+                  <c:v>0.43766401903161439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4691254831463875E-2</c:v>
+                  <c:v>0.69025662014252631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9133661672260018E-2</c:v>
+                  <c:v>0.83927040456118851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3358111515269816E-2</c:v>
+                  <c:v>1.0056532752669354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.625273404523765E-2</c:v>
+                  <c:v>1.413647621263441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0074791031325345E-2</c:v>
+                  <c:v>1.5728095954943533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4360744660158609E-2</c:v>
+                  <c:v>2.1269594870455255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6008556147333581E-2</c:v>
+                  <c:v>2.3532913629519645</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1464658065793365E-2</c:v>
+                  <c:v>2.861104223417664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5372892847559637E-2</c:v>
+                  <c:v>3.2982498512177196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6847319077858487E-2</c:v>
+                  <c:v>3.7096391904865138</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7910521060753153E-2</c:v>
+                  <c:v>4.3941499477438315</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9258713223496132E-2</c:v>
+                  <c:v>4.8926720872850655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9662586339542787E-2</c:v>
+                  <c:v>5.6836231580085812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.582830182819636E-2</c:v>
+                  <c:v>6.1837694466427298</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7174068158186897E-2</c:v>
+                  <c:v>7.2305718726998984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,7 +1618,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F776-4D06-8311-0D271A62302E}"/>
+              <c16:uniqueId val="{00000001-B6C0-45AF-8336-BC5D99BEA4EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2039,1295 +2065,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PolyCrystalline(Small)'!$B$4:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PolyCrystalline(Small)'!$H$4:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>2.9360687733668103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4637102209048707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8200597252840849</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6047302881638101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5115745734482153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2036347278128472</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0915636016749315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99718529100363618</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84106472106853403</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79737373279217338</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68567827748468912</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65187173353291905</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.59119827850934548</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55062791416604862</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.51919937917546244</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.47704853179044898</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.45209212810384447</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.41945691890042708</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4021363719528665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.37188929424412431</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A15-43A5-995B-C22221E9EC8C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1204141024"/>
-        <c:axId val="83522112"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1204141024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Input</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> Voltage (V)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4005837758407641"/>
-              <c:y val="0.92224722222222211"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83522112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83522112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1200" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Capacitance</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> (nF)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN" sz="1200" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.2692202600611023E-2"/>
-              <c:y val="0.40032275647996735"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1204141024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>1/C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1" baseline="30000">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> vs V Plot of the Solar Cell</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1800" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30110028687327522"/>
-          <c:y val="4.5295765533296117E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11604431753665298"/>
-          <c:y val="0.15621583333333333"/>
-          <c:w val="0.81377550679624622"/>
-          <c:h val="0.72492138888888891"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.48108751271053435"/>
-                  <c:y val="-9.0314455128813212E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PolyCrystalline(Small)'!$B$4:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PolyCrystalline(Small)'!$I$4:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.11600255418309843</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1647482270348721</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30187609318024178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38832549150400675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.43766401903161439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69025662014252631</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83927040456118851</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0056532752669354</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.413647621263441</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5728095954943533</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1269594870455255</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.3532913629519645</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.861104223417664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2982498512177196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7096391904865138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3941499477438315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.8926720872850655</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6836231580085812</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1837694466427298</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.2305718726998984</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6C0-45AF-8336-BC5D99BEA4EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1204141024"/>
-        <c:axId val="83522112"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1204141024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>Input</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> Voltage (V)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4005837758407641"/>
-              <c:y val="0.92224722222222211"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83522112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83522112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1200" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>1/C^2</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.778170329334307E-2"/>
-              <c:y val="0.44229397360832856"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1204141024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>C</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> vs V Plot of the Solar Cell</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN" sz="1800" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33188437633455858"/>
-          <c:y val="4.0000207074707375E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11604431753665298"/>
-          <c:y val="0.15621583333333333"/>
-          <c:w val="0.81377550679624622"/>
-          <c:h val="0.72492138888888891"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:tx>
             <c:v>CvsV</c:v>
           </c:tx>
@@ -3426,7 +2163,7 @@
             <c:numRef>
               <c:f>'MonoCrystalline(new Small)'!$H$4:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2.942606336644245</c:v>
@@ -3753,7 +2490,1328 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204141024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>1/C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" baseline="30000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> vs V Plot of the Solar Cell</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30110028687327522"/>
+          <c:y val="4.5295765533296117E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11604431753665298"/>
+          <c:y val="0.15621583333333333"/>
+          <c:w val="0.81377550679624622"/>
+          <c:h val="0.72492138888888891"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1c2vsV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.48108751271053435"/>
+                  <c:y val="-9.0314455128813212E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MonoCrystalline(new Small)'!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MonoCrystalline(new Small)'!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.11548768300081896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17493408351333833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31942925682342299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39824352460090162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53824726256012234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80936112647757252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97714935318660356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4439207219766785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8092710589623222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3068682386798911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9126803306949585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3439513867127659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2157077941280745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6650644599409858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6908086475604733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.584198015781344</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5061644479101624</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0280782183151818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.416707548510441</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.244199977944616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04B9-48FB-8ACE-5EFE20B8A875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204141024"/>
+        <c:axId val="83522112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204141024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4005837758407641"/>
+              <c:y val="0.92224722222222211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83522112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83522112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>1/C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>2 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>(nF^-2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.778170329334307E-2"/>
+              <c:y val="0.44229397360832856"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204141024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> vs V Plot of the Solar Cell</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33188437633455858"/>
+          <c:y val="4.0000207074707375E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11604431753665298"/>
+          <c:y val="0.15621583333333333"/>
+          <c:w val="0.81377550679624622"/>
+          <c:h val="0.72492138888888891"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CvsV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PolyCrystalline (BIG)'!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PolyCrystalline (BIG)'!$H$5:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.69246211664840274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49116332828285109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3837256861592131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31386255199627072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27193798675577296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24122815040589429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21600290688419166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19609295268851726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17873861696526328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16509147927164389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15243610483961614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14384404962221839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13528407877043197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12867696500615655</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1216745298424461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11575430483774737</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11252020257392069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10775766376287121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10393382673560407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9221097717306278E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2182-4903-8932-5385FD7B4C60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204141024"/>
+        <c:axId val="83522112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204141024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4005837758407641"/>
+              <c:y val="0.92224722222222211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83522112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83522112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Capacitance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (nF)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2692202600611023E-2"/>
+              <c:y val="0.40032275647996735"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4039,7 +4097,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'MonoCrystalline(new Small)'!$B$4:$B$23</c:f>
+              <c:f>'PolyCrystalline (BIG)'!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4108,69 +4166,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MonoCrystalline(new Small)'!$I$4:$I$23</c:f>
+              <c:f>'PolyCrystalline (BIG)'!$I$5:$I$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.11548768300081896</c:v>
+                  <c:v>2.0854892817690454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17493408351333833</c:v>
+                  <c:v>4.1452252292302463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31942925682342299</c:v>
+                  <c:v>6.7913835334365205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39824352460090162</c:v>
+                  <c:v>10.151284435035896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53824726256012234</c:v>
+                  <c:v>13.522601315453619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80936112647757252</c:v>
+                  <c:v>17.184781957395909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97714935318660356</c:v>
+                  <c:v>21.432893624591905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4439207219766785</c:v>
+                  <c:v>26.006147893759312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8092710589623222</c:v>
+                  <c:v>31.301360451257651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3068682386798911</c:v>
+                  <c:v>36.69025093871614</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9126803306949585</c:v>
+                  <c:v>43.035248428070012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3439513867127659</c:v>
+                  <c:v>48.32993350456551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2157077941280745</c:v>
+                  <c:v>54.639488204301351</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6650644599409858</c:v>
+                  <c:v>60.394637927236445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6908086475604733</c:v>
+                  <c:v>67.546157204802611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.584198015781344</c:v>
+                  <c:v>74.632106135011924</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5061644479101624</c:v>
+                  <c:v>78.983975494509224</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0280782183151818</c:v>
+                  <c:v>86.119929531479897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.416707548510441</c:v>
+                  <c:v>92.573389272382116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.244199977944616</c:v>
+                  <c:v>101.57619610658838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4236,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-04B9-48FB-8ACE-5EFE20B8A875}"/>
+              <c16:uniqueId val="{00000001-2E7F-4BA1-856B-B6321A16AC26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4446,7 +4504,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4649,9 +4707,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>CvsV</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4676,7 +4731,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PolyCrystalline (BIG)'!$B$5:$B$24</c:f>
+              <c:f>'Collection of data'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4745,69 +4800,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PolyCrystalline (BIG)'!$H$5:$H$24</c:f>
+              <c:f>'Collection of data'!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.69246211664840274</c:v>
+                  <c:v>5.2429774415197086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49116332828285109</c:v>
+                  <c:v>6.2455257776348825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3837256861592131</c:v>
+                  <c:v>3.9876840651427448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31386255199627072</c:v>
+                  <c:v>5.3818913576413863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27193798675577296</c:v>
+                  <c:v>6.2512284850034066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24122815040589429</c:v>
+                  <c:v>5.3689578617282985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21600290688419166</c:v>
+                  <c:v>7.2293783608136977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19609295268851726</c:v>
+                  <c:v>5.475190973912972</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17873861696526328</c:v>
+                  <c:v>6.171812597045828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16509147927164389</c:v>
+                  <c:v>5.7663193500032897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15243610483961614</c:v>
+                  <c:v>4.7478893168580969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14384404962221839</c:v>
+                  <c:v>6.2007165394566464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13528407877043197</c:v>
+                  <c:v>6.8255556634067096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12867696500615655</c:v>
+                  <c:v>5.3169761317619351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1216745298424461</c:v>
+                  <c:v>5.2095121161391758</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11575430483774737</c:v>
+                  <c:v>5.9857149038634416</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11252020257392069</c:v>
+                  <c:v>5.0469844848366021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10775766376287121</c:v>
+                  <c:v>5.806246804629871</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10393382673560407</c:v>
+                  <c:v>6.2223161517424188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.9221097717306278E-2</c:v>
+                  <c:v>6.0662830414229809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +4870,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2182-4903-8932-5385FD7B4C60}"/>
+              <c16:uniqueId val="{00000000-F776-4D06-8311-0D271A62302E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5286,9 +5341,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>1c2vsV</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -5360,7 +5412,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'PolyCrystalline (BIG)'!$B$5:$B$24</c:f>
+              <c:f>'Collection of data'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -5429,69 +5481,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PolyCrystalline (BIG)'!$I$5:$I$24</c:f>
+              <c:f>'Collection of data'!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0854892817690454</c:v>
+                  <c:v>3.6378435835880997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1452252292302463</c:v>
+                  <c:v>2.5636692225514617E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7913835334365205</c:v>
+                  <c:v>6.2886657816162109E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.151284435035896</c:v>
+                  <c:v>3.4524718552324987E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.522601315453619</c:v>
+                  <c:v>2.558993921723424E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.184781957395909</c:v>
+                  <c:v>3.4691254831463875E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.432893624591905</c:v>
+                  <c:v>1.9133661672260018E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.006147893759312</c:v>
+                  <c:v>3.3358111515269816E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.301360451257651</c:v>
+                  <c:v>2.625273404523765E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.69025093871614</c:v>
+                  <c:v>3.0074791031325345E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.035248428070012</c:v>
+                  <c:v>4.4360744660158609E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.32993350456551</c:v>
+                  <c:v>2.6008556147333581E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.639488204301351</c:v>
+                  <c:v>2.1464658065793365E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.394637927236445</c:v>
+                  <c:v>3.5372892847559637E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.546157204802611</c:v>
+                  <c:v>3.6847319077858487E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.632106135011924</c:v>
+                  <c:v>2.7910521060753153E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.983975494509224</c:v>
+                  <c:v>3.9258713223496132E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.119929531479897</c:v>
+                  <c:v>2.9662586339542787E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>92.573389272382116</c:v>
+                  <c:v>2.582830182819636E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.57619610658838</c:v>
+                  <c:v>2.7174068158186897E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5499,7 +5551,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E7F-4BA1-856B-B6321A16AC26}"/>
+              <c16:uniqueId val="{00000000-F776-4D06-8311-0D271A62302E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5701,32 +5753,8 @@
                     </a:solidFill>
                     <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>1/C</a:t>
+                  <a:t>1/C^2</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="30000">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>2 </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-IN" sz="1200" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>(nF^-2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-IN" sz="1200" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10306,83 +10334,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>751503</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>494334</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>36171</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5209C81F-8605-3465-9F55-8C62B571A6E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>735474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120568</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500577</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>26807</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A187E673-7757-4437-48A8-E01F5DC7E85A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>16029</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -10460,7 +10411,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10541,7 +10492,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10622,6 +10573,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>751503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494334</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5209C81F-8605-3465-9F55-8C62B571A6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>735474</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500577</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A187E673-7757-4437-48A8-E01F5DC7E85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{AC5B6F9B-8278-43F7-BC2D-36CE7306BD83}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
@@ -10652,25 +10680,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFCEC266-AAE5-44AC-B2D1-FC92543D706B}" name="CC" displayName="CC" ref="B3:D23" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B3:D23" xr:uid="{FFCEC266-AAE5-44AC-B2D1-FC92543D706B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{622E53A8-9BF8-44A3-8CE3-13B978BF438F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{06C0E2E0-F136-4420-88C2-A8452AFA047E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F909E801-1F17-4858-9D07-F7B2C804DDF7}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{622E53A8-9BF8-44A3-8CE3-13B978BF438F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{06C0E2E0-F136-4420-88C2-A8452AFA047E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F909E801-1F17-4858-9D07-F7B2C804DDF7}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{832A5214-2950-4F47-9771-E0F76284BDF1}" name="SS" displayName="SS" ref="E3:I23" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{832A5214-2950-4F47-9771-E0F76284BDF1}" name="SS" displayName="SS" ref="E3:I23" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="E3:I23" xr:uid="{832A5214-2950-4F47-9771-E0F76284BDF1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0962CDEA-57DD-466E-B898-17375E313167}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{76011737-EE9A-4693-BDEB-3B55D2FB0248}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{64C64796-865C-4D5A-B3AF-ABE12062BD8A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{272DBFEC-7AB9-448F-B563-7974D60CFAF4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{0962CDEA-57DD-466E-B898-17375E313167}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{76011737-EE9A-4693-BDEB-3B55D2FB0248}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{64C64796-865C-4D5A-B3AF-ABE12062BD8A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{272DBFEC-7AB9-448F-B563-7974D60CFAF4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="1">
       <calculatedColumnFormula>5.56*(CC[[#This Row],[Column2]]*SS[[#This Row],[Column2]]+CC[[#This Row],[Column3]]*SS[[#This Row],[Column3]])/(SS[[#This Row],[Column2]]*SS[[#This Row],[Column2]]+SS[[#This Row],[Column3]]*SS[[#This Row],[Column3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AA714DB4-F495-42AB-BB92-43901B8A93D3}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{AA714DB4-F495-42AB-BB92-43901B8A93D3}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="0">
       <calculatedColumnFormula>1/(SS[[#This Row],[Column4]]*SS[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10974,10 +11002,2050 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049276D3-7141-4DB0-8F0D-19B4CF2E0CC8}">
+  <dimension ref="B2:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9997463329354884E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.8811468124265475E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.7695435074137471E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.3497725216398066E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.9360687733668103</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.11600255418309843</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.999303942313548E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.8842882845335991E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.5608332347355993E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8.7656478478215269E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.4637102209048707</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.1647482270348721</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.989384123494667E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.8600184904564599E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.025433339285808E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.11792022260296442</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.8200597252840849</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.30187609318024178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.9837997933919941E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.8474951502813749E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.8903914188742921E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.1333054664668622</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.6047302881638101</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.38832549150400675</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.0023850545011061E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8881937244317225E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.3581227464661475E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1430191643608606</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.5115745734482153</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.43766401903161439</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.996412815259121E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.8725354693569906E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.2355138678179051E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.17888495102311847</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.2036347278128472</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.69025662014252631</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.9988664639107815E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.8803647087173383E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.017329117136789E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.19765109035261683</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0915636016749315</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.83927040456118851</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.0009446226472989E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.8834949954710769E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.1196229793873786E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.21652974941641928</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.99718529100363618</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.0056532752669354</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.999501369459129E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.8827166987648452E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.3196617146238737E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.25667462853072609</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.84106472106853403</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.413647621263441</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.0023371201207908E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.8874078560465812E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.3954365776170265E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.27106510346452406</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.79737373279217338</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.5728095954943533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.991147076137228E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.8592252849558195E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.6187329126115996E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.3129331313232791</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.68567827748468912</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.1269594870455255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.0037806376779791E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.8874032126811328E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.7049395576835959E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.33156984099665132</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.65187173353291905</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.3532913629519645</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.0003921959662932E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.8827124468188076E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.8867366350025998E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.36515185762187996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.59119827850934548</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.861104223417664</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.0001497441423455E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.8827093714842331E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.0181495971287718E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.39205980060290513</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.55062791416604862</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3.2982498512177196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.002164782660628E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.8850561254667196E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.1453528680398699E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.41604205964294905</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.51919937917546244</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.7096391904865138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.9990427848997098E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.8787978714324121E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.3265652274691236E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.45207554806577055</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.47704853179044898</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4.3941499477438315</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.9997615223873032E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.8842840615393587E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.4684672112610277E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.47769925208696806</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.45209212810384447</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.8926720872850655</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.0018306474084823E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.8866304476748124E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.6505068833491234E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.51518352270426582</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.41945691890042708</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.6836231580085812</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.0039273095510558E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.887401214283933E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.7672888487397983E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.53747987197529634</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.4021363719528665</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.1837694466427298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.0025643657962692E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.8866235448411182E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.9939838765622177E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.5810768687978296</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.37188929424412431</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7.2305718726998984</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1.6000000000000002E-19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>11.68</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8.8499999999999988E-12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>3.5890366153054725</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-1.6441778811432046</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>0.24371310725916448</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.31352912171856168</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>2599806402665049.5</v>
+      </c>
+      <c r="C36" s="5">
+        <v>-0.45811120291489815</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>176539546563484.06</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-9.2730969142672925E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AC2DB2-A0C7-4A7E-824B-304053C1C4EF}">
+  <dimension ref="B2:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
+    <col min="6" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.9997463329354884E-3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3.8811468124265475E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3.769880976343537E-3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>7.3333990142910588E-2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2.942606336644245</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.11548768300081896</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.999303942313548E-3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3.8842882845335991E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>4.7280100874207871E-3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>9.0324104125940274E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2.3909075474370813</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.17493408351333833</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.989384123494667E-3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3.8600184904564599E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>6.2240158467049894E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.1212988161567181</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1.7693455351143605</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.31942925682342299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.9837997933919941E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3.8474951502813749E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="19">
+        <v>6.9777045985114344E-3</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.1349970849794726</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.5846218445427895</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.39824352460090162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2.0023850545011061E-3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3.8881937244317225E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8.2350223569499607E-3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.15860032238019833</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1.3630415197500503</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.53824726256012234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.996412815259121E-3</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3.8725354693569906E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>9.9529682427608943E-3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.19370694167090247</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1.1115495553472912</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.80936112647757252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.9988664639107815E-3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3.8803647087173383E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1.0900906066803547E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.21327338770198115</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1.011624935143463</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.97714935318660356</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.0009446226472989E-3</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3.8834949954710769E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1.3359958046020796E-2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.25945972242517695</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.83220117655741499</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1.4439207219766785</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.999501369459129E-3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3.8827166987648452E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1.5060839552766306E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.2903715086458496</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.74344386484269198</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1.8092710589623222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.0023371201207908E-3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.8874078560465812E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1.6938231633672883E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.32827991596378203</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.6583981549630461</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2.3068682386798911</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.991147076137228E-3</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3.8592252849558195E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1.897866366778796E-2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.36619813877544327</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.58594059600615134</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2.9126803306949585</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.0037806376779791E-3</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3.8874032126811328E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2.0371853546541818E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.39524321495469483</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.54685227401245162</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3.3439513867127659</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.0003921959662932E-3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>3.8827124468188076E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.277036324173573E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.44324983977807297</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.48704013331596685</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4.2157077941280745</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.0001497441423455E-3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.8827093714842331E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2.4040774420198592E-2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.46627001121912648</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.46298953581092972</v>
+      </c>
+      <c r="I17" s="19">
+        <v>4.6650644599409858</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2.002164782660628E-3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3.8850561254667196E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2.657155396393919E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.51529793420660841</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.41919202198484223</v>
+      </c>
+      <c r="I18" s="19">
+        <v>5.6908086475604733</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.9990427848997098E-3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3.8787978714324121E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2.8488315935566378E-2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.55338152887157577</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.38971628883619852</v>
+      </c>
+      <c r="I19" s="19">
+        <v>6.584198015781344</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.9997615223873032E-3</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3.8842840615393587E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="19">
+        <v>3.0464742137018216E-2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.5916906653156353</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.36499840157095825</v>
+      </c>
+      <c r="I20" s="19">
+        <v>7.5061644479101624</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2.0018306474084823E-3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3.8866304476748124E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3.346457642201045E-2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.64929930567132155</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.3328145798186215</v>
+      </c>
+      <c r="I21" s="19">
+        <v>9.0280782183151818</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2.0039273095510558E-3</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3.887401214283933E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>3.5997298812620461E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.69758671492301783</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.3098380596931346</v>
+      </c>
+      <c r="I22" s="19">
+        <v>10.416707548510441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2.0025643657962692E-3</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3.8866235448411182E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3.7335836483330484E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.72462205517209544</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.29821928150684945</v>
+      </c>
+      <c r="I23" s="19">
+        <v>11.244199977944616</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1.6000000000000002E-19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>11.68</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8.8499999999999988E-12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>5.7436922488177675</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-2.8802224292763987</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>0.44506842421794524</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.57256630026602451</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="G34" s="1">
+        <f>C32/B32</f>
+        <v>-0.50145834848119497</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>1624530000504647.3</v>
+      </c>
+      <c r="C36" s="5">
+        <v>-0.50145834848119497</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>125881919869262.3</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-0.10699156124046856</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351BDA27-9B22-455F-BD65-EF0CD4C88C6A}">
+  <dimension ref="B3:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.9997463329354884E-3</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3.8811468124265475E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.6014301688162244E-2</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.31163187541127996</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.69246211664840274</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.0854892817690454</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.999303942313548E-3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3.8842882845335991E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.2682000745026659E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.43970132865781197</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.49116332828285109</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4.1452252292302463</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.989384123494667E-3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3.8600184904564599E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2.8762014454542888E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.55930130029601266</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.3837256861592131</v>
+      </c>
+      <c r="I7" s="19">
+        <v>6.7913835334365205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.9837997933919941E-3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3.8474951502813749E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3.513721283474782E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.68157483321594259</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.31386255199627072</v>
+      </c>
+      <c r="I8" s="19">
+        <v>10.151284435035896</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.0023850545011061E-3</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3.8881937244317225E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="19">
+        <v>4.0887789149161094E-2</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.79497649468774068</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.27193798675577296</v>
+      </c>
+      <c r="I9" s="19">
+        <v>13.522601315453619</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.996412815259121E-3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3.8725354693569906E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4.5946208451044288E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.89257337073647758</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.24122815040589429</v>
+      </c>
+      <c r="I10" s="19">
+        <v>17.184781957395909</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.9988664639107815E-3</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3.8803647087173383E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5.1472953933887955E-2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.99882007765154535</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.21600290688419166</v>
+      </c>
+      <c r="I11" s="19">
+        <v>21.432893624591905</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2.0009446226472989E-3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3.8834949954710769E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5.6783462567340237E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1.1011197726084174</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.19609295268851726</v>
+      </c>
+      <c r="I12" s="19">
+        <v>26.006147893759312</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1.999501369459129E-3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3.8827166987648452E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6.2276071472625143E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1.2077878570528455</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.17873861696526328</v>
+      </c>
+      <c r="I13" s="19">
+        <v>31.301360451257651</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.0023371201207908E-3</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3.8874078560465812E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6.7499077516462058E-2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.3092095058306539</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.16509147927164389</v>
+      </c>
+      <c r="I14" s="19">
+        <v>36.69025093871614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1.991147076137228E-3</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3.8592252849558195E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>7.2533000488097812E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1.4076301290278703</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.15243610483961614</v>
+      </c>
+      <c r="I15" s="19">
+        <v>43.035248428070012</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2.0037806376779791E-3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>3.8874032126811328E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>7.7400503445711616E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.5025995258538845</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.14384404962221839</v>
+      </c>
+      <c r="I16" s="19">
+        <v>48.32993350456551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.0003921959662932E-3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.8827124468188076E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F17" s="19">
+        <v>8.2221452330162398E-2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1.5957439983140767</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.13528407877043197</v>
+      </c>
+      <c r="I17" s="19">
+        <v>54.639488204301351</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2.0001497441423455E-3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3.8827093714842331E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>8.6438548314723959E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1.6776782651247606</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.12867696500615655</v>
+      </c>
+      <c r="I18" s="19">
+        <v>60.394637927236445</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C19" s="19">
+        <v>2.002164782660628E-3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3.8850561254667196E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9.1438471925468487E-2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1.7753053617895729</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.1216745298424461</v>
+      </c>
+      <c r="I19" s="19">
+        <v>67.546157204802611</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.9990427848997098E-3</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3.8787978714324121E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F20" s="19">
+        <v>9.5982566890012236E-2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.8630959996070546</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.11575430483774737</v>
+      </c>
+      <c r="I20" s="19">
+        <v>74.632106135011924</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1.9997615223873032E-3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3.8842840615393587E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F21" s="19">
+        <v>9.8898728272981157E-2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.9193505071523866</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.11252020257392069</v>
+      </c>
+      <c r="I21" s="19">
+        <v>78.983975494509224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2.0018306474084823E-3</v>
+      </c>
+      <c r="D22" s="19">
+        <v>3.8866304476748124E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.10331041985020441</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2.0053936424207572</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.10775766376287121</v>
+      </c>
+      <c r="I22" s="19">
+        <v>86.119929531479897</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2.0039273095510558E-3</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3.887401214283933E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.10708530471962889</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2.0795936685412357</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.10393382673560407</v>
+      </c>
+      <c r="I23" s="19">
+        <v>92.573389272382116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2.0025643657962692E-3</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3.8866235448411182E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.11213853597859509</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2.1779306323139536</v>
+      </c>
+      <c r="H24" s="19">
+        <v>9.9221097717306278E-2</v>
+      </c>
+      <c r="I24" s="19">
+        <v>101.57619610658838</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="12">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1.6000000000000002E-19</v>
+      </c>
+      <c r="F34" s="12">
+        <v>11.68</v>
+      </c>
+      <c r="G34" s="12">
+        <v>8.8499999999999988E-12</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
+        <v>53.211593614370308</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-17.336208633046162</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1753527706667.0278</v>
+      </c>
+      <c r="G36" s="5">
+        <v>-0.3257975838627083</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
+        <v>1.6045443494830187</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2.0641950131837827</v>
+      </c>
+      <c r="F37" s="6">
+        <v>52875938912.580368</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-4.001685021365918E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <f>E36/D36</f>
+        <v>-0.3257975838627083</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BBBD7B-02A4-4690-8E34-7B71B51910A6}">
   <dimension ref="B2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -11703,2030 +13771,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049276D3-7141-4DB0-8F0D-19B4CF2E0CC8}">
-  <dimension ref="B2:I37"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E5D255-E5BF-4A77-BC16-4DDCB08C9EC4}">
+  <dimension ref="D4:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.7436922488177675</v>
+      </c>
+      <c r="F5" s="2">
+        <v>53.211593614370308</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.9997463329354884E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.8811468124265475E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.7695435074137471E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7.3497725216398066E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.9360687733668103</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.11600255418309843</v>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.44506842421794524</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.6045443494830187</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.999303942313548E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.8842882845335991E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.5608332347355993E-3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>8.7656478478215269E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.4637102209048707</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.1647482270348721</v>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-2.8802224292763987</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-17.336208633046162</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.989384123494667E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.8600184904564599E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6.025433339285808E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.11792022260296442</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.8200597252840849</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.30187609318024178</v>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.57256630026602451</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.0641950131837827</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.9837997933919941E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.8474951502813749E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.8903914188742921E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.1333054664668622</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.6047302881638101</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.38832549150400675</v>
-      </c>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.0023850545011061E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.8881937244317225E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.3581227464661475E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.1430191643608606</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.5115745734482153</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.43766401903161439</v>
-      </c>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.996412815259121E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.8725354693569906E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9.2355138678179051E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.17888495102311847</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.2036347278128472</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.69025662014252631</v>
-      </c>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.9988664639107815E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.8803647087173383E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.017329117136789E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.19765109035261683</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.0915636016749315</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.83927040456118851</v>
-      </c>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.0009446226472989E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.8834949954710769E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.1196229793873786E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.21652974941641928</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.99718529100363618</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.0056532752669354</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.999501369459129E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.8827166987648452E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.3196617146238737E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.25667462853072609</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.84106472106853403</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.413647621263441</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.0023371201207908E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.8874078560465812E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.3954365776170265E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.27106510346452406</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.79737373279217338</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.5728095954943533</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.991147076137228E-3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.8592252849558195E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.6187329126115996E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.3129331313232791</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.68567827748468912</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2.1269594870455255</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.0037806376779791E-3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.8874032126811328E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.7049395576835959E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.33156984099665132</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.65187173353291905</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.3532913629519645</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.0003921959662932E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.8827124468188076E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.8867366350025998E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.36515185762187996</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.59119827850934548</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2.861104223417664</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.0001497441423455E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3.8827093714842331E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.0181495971287718E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.39205980060290513</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.55062791416604862</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3.2982498512177196</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.002164782660628E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.8850561254667196E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.1453528680398699E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.41604205964294905</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.51919937917546244</v>
-      </c>
-      <c r="I18" s="2">
-        <v>3.7096391904865138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.9990427848997098E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.8787978714324121E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.3265652274691236E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.45207554806577055</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.47704853179044898</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4.3941499477438315</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.9997615223873032E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.8842840615393587E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2.4684672112610277E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.47769925208696806</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.45209212810384447</v>
-      </c>
-      <c r="I20" s="2">
-        <v>4.8926720872850655</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.0018306474084823E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.8866304476748124E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2.6505068833491234E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.51518352270426582</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.41945691890042708</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5.6836231580085812</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.0039273095510558E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.887401214283933E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2.7672888487397983E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.53747987197529634</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.4021363719528665</v>
-      </c>
-      <c r="I22" s="2">
-        <v>6.1837694466427298</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2.0025643657962692E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.8866235448411182E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2.9939838765622177E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.5810768687978296</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.37188929424412431</v>
-      </c>
-      <c r="I23" s="2">
-        <v>7.2305718726998984</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1.6000000000000002E-19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>11.68</v>
-      </c>
-      <c r="C29" s="12">
-        <v>8.8499999999999988E-12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>3.5890366153054725</v>
-      </c>
-      <c r="C32" s="5">
-        <v>-1.6441778811432046</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>0.24371310725916448</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.31352912171856168</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
-        <v>2599806402665049.5</v>
-      </c>
-      <c r="C36" s="5">
-        <v>-0.45811120291489815</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <v>176539546563484.06</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-9.2730969142672925E-2</v>
-      </c>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AC2DB2-A0C7-4A7E-824B-304053C1C4EF}">
-  <dimension ref="B2:I37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.9997463329354884E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.8811468124265475E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.769880976343537E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7.3333990142910588E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.942606336644245</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.11548768300081896</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.999303942313548E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.8842882845335991E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.7280100874207871E-3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.0324104125940274E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.3909075474370813</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.17493408351333833</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.989384123494667E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.8600184904564599E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6.2240158467049894E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.1212988161567181</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.7693455351143605</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.31942925682342299</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.9837997933919941E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.8474951502813749E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.9777045985114344E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.1349970849794726</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.5846218445427895</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.39824352460090162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.0023850545011061E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.8881937244317225E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8.2350223569499607E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.15860032238019833</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.3630415197500503</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.53824726256012234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.996412815259121E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.8725354693569906E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9.9529682427608943E-3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.19370694167090247</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.1115495553472912</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.80936112647757252</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.9988664639107815E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.8803647087173383E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0900906066803547E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.21327338770198115</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.011624935143463</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.97714935318660356</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.0009446226472989E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.8834949954710769E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.3359958046020796E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.25945972242517695</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.83220117655741499</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.4439207219766785</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.999501369459129E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.8827166987648452E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.5060839552766306E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.2903715086458496</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.74344386484269198</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.8092710589623222</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.0023371201207908E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.8874078560465812E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.6938231633672883E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.32827991596378203</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.6583981549630461</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2.3068682386798911</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.991147076137228E-3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.8592252849558195E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.897866366778796E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.36619813877544327</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.58594059600615134</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2.9126803306949585</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.0037806376779791E-3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.8874032126811328E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.0371853546541818E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.39524321495469483</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.54685227401245162</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.3439513867127659</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.0003921959662932E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.8827124468188076E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.277036324173573E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.44324983977807297</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.48704013331596685</v>
-      </c>
-      <c r="I16" s="2">
-        <v>4.2157077941280745</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.0001497441423455E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3.8827093714842331E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.4040774420198592E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.46627001121912648</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.46298953581092972</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4.6650644599409858</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.002164782660628E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.8850561254667196E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.657155396393919E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.51529793420660841</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.41919202198484223</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5.6908086475604733</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.9990427848997098E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.8787978714324121E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.8488315935566378E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.55338152887157577</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.38971628883619852</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6.584198015781344</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.9997615223873032E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.8842840615393587E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.0464742137018216E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.5916906653156353</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.36499840157095825</v>
-      </c>
-      <c r="I20" s="2">
-        <v>7.5061644479101624</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.0018306474084823E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.8866304476748124E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3.346457642201045E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.64929930567132155</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.3328145798186215</v>
-      </c>
-      <c r="I21" s="2">
-        <v>9.0280782183151818</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.0039273095510558E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.887401214283933E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3.5997298812620461E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.69758671492301783</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.3098380596931346</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10.416707548510441</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2.0025643657962692E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.8866235448411182E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3.7335836483330484E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.72462205517209544</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.29821928150684945</v>
-      </c>
-      <c r="I23" s="2">
-        <v>11.244199977944616</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1.6000000000000002E-19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
-        <v>11.68</v>
-      </c>
-      <c r="C29" s="12">
-        <v>8.8499999999999988E-12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>5.7436922488177675</v>
-      </c>
-      <c r="C32" s="5">
-        <v>-2.8802224292763987</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>0.44506842421794524</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.57256630026602451</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
-        <v>1624530000504647.3</v>
-      </c>
-      <c r="C36" s="5">
-        <v>-0.50145834848119497</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
-        <v>125881919869262.3</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-0.10699156124046856</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351BDA27-9B22-455F-BD65-EF0CD4C88C6A}">
-  <dimension ref="B3:I37"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.9997463329354884E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.8811468124265475E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.6014301688162244E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.31163187541127996</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.69246211664840274</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.0854892817690454</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.999303942313548E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.8842882845335991E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.2682000745026659E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.43970132865781197</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.49116332828285109</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.1452252292302463</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.989384123494667E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.8600184904564599E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.8762014454542888E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.55930130029601266</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.3837256861592131</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6.7913835334365205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.9837997933919941E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.8474951502813749E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.513721283474782E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.68157483321594259</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.31386255199627072</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10.151284435035896</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.0023850545011061E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.8881937244317225E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.0887789149161094E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.79497649468774068</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.27193798675577296</v>
-      </c>
-      <c r="I9" s="2">
-        <v>13.522601315453619</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.996412815259121E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.8725354693569906E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.5946208451044288E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.89257337073647758</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.24122815040589429</v>
-      </c>
-      <c r="I10" s="2">
-        <v>17.184781957395909</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.9988664639107815E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.8803647087173383E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.1472953933887955E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.99882007765154535</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.21600290688419166</v>
-      </c>
-      <c r="I11" s="2">
-        <v>21.432893624591905</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.0009446226472989E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.8834949954710769E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5.6783462567340237E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.1011197726084174</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.19609295268851726</v>
-      </c>
-      <c r="I12" s="2">
-        <v>26.006147893759312</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.999501369459129E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.8827166987648452E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.2276071472625143E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.2077878570528455</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.17873861696526328</v>
-      </c>
-      <c r="I13" s="2">
-        <v>31.301360451257651</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.0023371201207908E-3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.8874078560465812E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.7499077516462058E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.3092095058306539</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.16509147927164389</v>
-      </c>
-      <c r="I14" s="2">
-        <v>36.69025093871614</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.991147076137228E-3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.8592252849558195E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.2533000488097812E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.4076301290278703</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.15243610483961614</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43.035248428070012</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2.0037806376779791E-3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.8874032126811328E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7.7400503445711616E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.5025995258538845</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.14384404962221839</v>
-      </c>
-      <c r="I16" s="2">
-        <v>48.32993350456551</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.0003921959662932E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3.8827124468188076E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8.2221452330162398E-2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.5957439983140767</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.13528407877043197</v>
-      </c>
-      <c r="I17" s="2">
-        <v>54.639488204301351</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.0001497441423455E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3.8827093714842331E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>8.6438548314723959E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.6776782651247606</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.12867696500615655</v>
-      </c>
-      <c r="I18" s="2">
-        <v>60.394637927236445</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.002164782660628E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.8850561254667196E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F19" s="2">
-        <v>9.1438471925468487E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.7753053617895729</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.1216745298424461</v>
-      </c>
-      <c r="I19" s="2">
-        <v>67.546157204802611</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.9990427848997098E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.8787978714324121E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F20" s="2">
-        <v>9.5982566890012236E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.8630959996070546</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.11575430483774737</v>
-      </c>
-      <c r="I20" s="2">
-        <v>74.632106135011924</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.9997615223873032E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.8842840615393587E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.8898728272981157E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.9193505071523866</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.11252020257392069</v>
-      </c>
-      <c r="I21" s="2">
-        <v>78.983975494509224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.0018306474084823E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.8866304476748124E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.10331041985020441</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2.0053936424207572</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.10775766376287121</v>
-      </c>
-      <c r="I22" s="2">
-        <v>86.119929531479897</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2.0039273095510558E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.887401214283933E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.10708530471962889</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2.0795936685412357</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.10393382673560407</v>
-      </c>
-      <c r="I23" s="2">
-        <v>92.573389272382116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.0025643657962692E-3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3.8866235448411182E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.11213853597859509</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2.1779306323139536</v>
-      </c>
-      <c r="H24" s="2">
-        <v>9.9221097717306278E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>101.57619610658838</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="12">
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="E34" s="12">
-        <v>1.6000000000000002E-19</v>
-      </c>
-      <c r="F34" s="12">
-        <v>11.68</v>
-      </c>
-      <c r="G34" s="12">
-        <v>8.8499999999999988E-12</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="5">
-        <v>53.211593614370308</v>
-      </c>
-      <c r="E36" s="5">
-        <v>-17.336208633046162</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1753527706667.0278</v>
-      </c>
-      <c r="G36" s="5">
-        <v>-0.3257975838627083</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="6">
-        <v>1.6045443494830187</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2.0641950131837827</v>
-      </c>
-      <c r="F37" s="6">
-        <v>52875938912.580368</v>
-      </c>
-      <c r="G37" s="6">
-        <v>-4.001685021365918E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/CV/Plots_CV.xlsx
+++ b/Data/CV/Plots_CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0651636B-FF5B-4AA3-B78A-CF8E50556E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE10B8F-0EAB-42E8-BBE7-EC679BA68491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
   </bookViews>
   <sheets>
     <sheet name="PolyCrystalline(Small)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -444,6 +444,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,9 +457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11021,16 +11021,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
@@ -11686,8 +11686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AC2DB2-A0C7-4A7E-824B-304053C1C4EF}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11702,16 +11702,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
@@ -11749,25 +11749,25 @@
       <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>1.9997463329354884E-3</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>3.8811468124265475E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0.2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>3.769880976343537E-3</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>7.3333990142910588E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>2.942606336644245</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>0.11548768300081896</v>
       </c>
     </row>
@@ -11775,25 +11775,25 @@
       <c r="B5" s="2">
         <v>0.3</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>1.999303942313548E-3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>3.8842882845335991E-2</v>
       </c>
       <c r="E5" s="2">
         <v>0.3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>4.7280100874207871E-3</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>9.0324104125940274E-2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>2.3909075474370813</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>0.17493408351333833</v>
       </c>
     </row>
@@ -11801,25 +11801,25 @@
       <c r="B6" s="2">
         <v>0.4</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1.989384123494667E-3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>3.8600184904564599E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0.4</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>6.2240158467049894E-3</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>0.1212988161567181</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <v>1.7693455351143605</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>0.31942925682342299</v>
       </c>
     </row>
@@ -11827,25 +11827,25 @@
       <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>1.9837997933919941E-3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>3.8474951502813749E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>6.9777045985114344E-3</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>0.1349970849794726</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>1.5846218445427895</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>0.39824352460090162</v>
       </c>
     </row>
@@ -11853,25 +11853,25 @@
       <c r="B8" s="2">
         <v>0.6</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>2.0023850545011061E-3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>3.8881937244317225E-2</v>
       </c>
       <c r="E8" s="2">
         <v>0.6</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>8.2350223569499607E-3</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>0.15860032238019833</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="15">
         <v>1.3630415197500503</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="15">
         <v>0.53824726256012234</v>
       </c>
     </row>
@@ -11879,25 +11879,25 @@
       <c r="B9" s="2">
         <v>0.7</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>1.996412815259121E-3</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>3.8725354693569906E-2</v>
       </c>
       <c r="E9" s="2">
         <v>0.7</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>9.9529682427608943E-3</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>0.19370694167090247</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <v>1.1115495553472912</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>0.80936112647757252</v>
       </c>
     </row>
@@ -11905,25 +11905,25 @@
       <c r="B10" s="2">
         <v>0.8</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>1.9988664639107815E-3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>3.8803647087173383E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0.8</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>1.0900906066803547E-2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>0.21327338770198115</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>1.011624935143463</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>0.97714935318660356</v>
       </c>
     </row>
@@ -11931,25 +11931,25 @@
       <c r="B11" s="2">
         <v>0.9</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>2.0009446226472989E-3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>3.8834949954710769E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0.9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="15">
         <v>1.3359958046020796E-2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>0.25945972242517695</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>0.83220117655741499</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>1.4439207219766785</v>
       </c>
     </row>
@@ -11957,25 +11957,25 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>1.999501369459129E-3</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>3.8827166987648452E-2</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>1.5060839552766306E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>0.2903715086458496</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>0.74344386484269198</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>1.8092710589623222</v>
       </c>
     </row>
@@ -11983,25 +11983,25 @@
       <c r="B13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>2.0023371201207908E-3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>3.8874078560465812E-2</v>
       </c>
       <c r="E13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>1.6938231633672883E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>0.32827991596378203</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>0.6583981549630461</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>2.3068682386798911</v>
       </c>
     </row>
@@ -12009,25 +12009,25 @@
       <c r="B14" s="2">
         <v>1.2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>1.991147076137228E-3</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>3.8592252849558195E-2</v>
       </c>
       <c r="E14" s="2">
         <v>1.2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>1.897866366778796E-2</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>0.36619813877544327</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>0.58594059600615134</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>2.9126803306949585</v>
       </c>
     </row>
@@ -12035,25 +12035,25 @@
       <c r="B15" s="2">
         <v>1.3</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>2.0037806376779791E-3</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>3.8874032126811328E-2</v>
       </c>
       <c r="E15" s="2">
         <v>1.3</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="15">
         <v>2.0371853546541818E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="15">
         <v>0.39524321495469483</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>0.54685227401245162</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="15">
         <v>3.3439513867127659</v>
       </c>
     </row>
@@ -12061,25 +12061,25 @@
       <c r="B16" s="2">
         <v>1.4</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>2.0003921959662932E-3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>3.8827124468188076E-2</v>
       </c>
       <c r="E16" s="2">
         <v>1.4</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>2.277036324173573E-2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="15">
         <v>0.44324983977807297</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>0.48704013331596685</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <v>4.2157077941280745</v>
       </c>
     </row>
@@ -12087,25 +12087,25 @@
       <c r="B17" s="2">
         <v>1.5</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>2.0001497441423455E-3</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>3.8827093714842331E-2</v>
       </c>
       <c r="E17" s="2">
         <v>1.5</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>2.4040774420198592E-2</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="15">
         <v>0.46627001121912648</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <v>0.46298953581092972</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="15">
         <v>4.6650644599409858</v>
       </c>
     </row>
@@ -12113,25 +12113,25 @@
       <c r="B18" s="2">
         <v>1.6</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>2.002164782660628E-3</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>3.8850561254667196E-2</v>
       </c>
       <c r="E18" s="2">
         <v>1.6</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>2.657155396393919E-2</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="15">
         <v>0.51529793420660841</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>0.41919202198484223</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="15">
         <v>5.6908086475604733</v>
       </c>
     </row>
@@ -12139,25 +12139,25 @@
       <c r="B19" s="2">
         <v>1.7</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <v>1.9990427848997098E-3</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>3.8787978714324121E-2</v>
       </c>
       <c r="E19" s="2">
         <v>1.7</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <v>2.8488315935566378E-2</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="15">
         <v>0.55338152887157577</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <v>0.38971628883619852</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <v>6.584198015781344</v>
       </c>
     </row>
@@ -12165,25 +12165,25 @@
       <c r="B20" s="2">
         <v>1.8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>1.9997615223873032E-3</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>3.8842840615393587E-2</v>
       </c>
       <c r="E20" s="2">
         <v>1.8</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>3.0464742137018216E-2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="15">
         <v>0.5916906653156353</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="15">
         <v>0.36499840157095825</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="15">
         <v>7.5061644479101624</v>
       </c>
     </row>
@@ -12191,25 +12191,25 @@
       <c r="B21" s="2">
         <v>1.9</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="15">
         <v>2.0018306474084823E-3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>3.8866304476748124E-2</v>
       </c>
       <c r="E21" s="2">
         <v>1.9</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="15">
         <v>3.346457642201045E-2</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="15">
         <v>0.64929930567132155</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="15">
         <v>0.3328145798186215</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="15">
         <v>9.0280782183151818</v>
       </c>
     </row>
@@ -12217,25 +12217,25 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="15">
         <v>2.0039273095510558E-3</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>3.887401214283933E-2</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="15">
         <v>3.5997298812620461E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <v>0.69758671492301783</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="15">
         <v>0.3098380596931346</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="15">
         <v>10.416707548510441</v>
       </c>
     </row>
@@ -12243,25 +12243,25 @@
       <c r="B23" s="2">
         <v>2.1</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="15">
         <v>2.0025643657962692E-3</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>3.8866235448411182E-2</v>
       </c>
       <c r="E23" s="2">
         <v>2.1</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="15">
         <v>3.7335836483330484E-2</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="15">
         <v>0.72462205517209544</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="15">
         <v>0.29821928150684945</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="15">
         <v>11.244199977944616</v>
       </c>
     </row>
@@ -12372,8 +12372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351BDA27-9B22-455F-BD65-EF0CD4C88C6A}">
   <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12391,16 +12391,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12438,25 +12438,25 @@
       <c r="B5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>1.9997463329354884E-3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>3.8811468124265475E-2</v>
       </c>
       <c r="E5" s="2">
         <v>0.2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>1.6014301688162244E-2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>0.31163187541127996</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>0.69246211664840274</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>2.0854892817690454</v>
       </c>
     </row>
@@ -12464,25 +12464,25 @@
       <c r="B6" s="2">
         <v>0.3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1.999303942313548E-3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>3.8842882845335991E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0.3</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>2.2682000745026659E-2</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>0.43970132865781197</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <v>0.49116332828285109</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>4.1452252292302463</v>
       </c>
     </row>
@@ -12490,25 +12490,25 @@
       <c r="B7" s="2">
         <v>0.4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>1.989384123494667E-3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>3.8600184904564599E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0.4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>2.8762014454542888E-2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>0.55930130029601266</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>0.3837256861592131</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>6.7913835334365205</v>
       </c>
     </row>
@@ -12516,25 +12516,25 @@
       <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>1.9837997933919941E-3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>3.8474951502813749E-2</v>
       </c>
       <c r="E8" s="2">
         <v>0.5</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>3.513721283474782E-2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>0.68157483321594259</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="15">
         <v>0.31386255199627072</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="15">
         <v>10.151284435035896</v>
       </c>
     </row>
@@ -12542,25 +12542,25 @@
       <c r="B9" s="2">
         <v>0.6</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>2.0023850545011061E-3</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>3.8881937244317225E-2</v>
       </c>
       <c r="E9" s="2">
         <v>0.6</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>4.0887789149161094E-2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>0.79497649468774068</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <v>0.27193798675577296</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>13.522601315453619</v>
       </c>
     </row>
@@ -12568,25 +12568,25 @@
       <c r="B10" s="2">
         <v>0.7</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>1.996412815259121E-3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>3.8725354693569906E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0.7</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>4.5946208451044288E-2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>0.89257337073647758</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>0.24122815040589429</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>17.184781957395909</v>
       </c>
     </row>
@@ -12594,25 +12594,25 @@
       <c r="B11" s="2">
         <v>0.8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>1.9988664639107815E-3</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>3.8803647087173383E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0.8</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="15">
         <v>5.1472953933887955E-2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>0.99882007765154535</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>0.21600290688419166</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>21.432893624591905</v>
       </c>
     </row>
@@ -12620,25 +12620,25 @@
       <c r="B12" s="2">
         <v>0.9</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>2.0009446226472989E-3</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>3.8834949954710769E-2</v>
       </c>
       <c r="E12" s="2">
         <v>0.9</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>5.6783462567340237E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>1.1011197726084174</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>0.19609295268851726</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>26.006147893759312</v>
       </c>
     </row>
@@ -12646,25 +12646,25 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>1.999501369459129E-3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>3.8827166987648452E-2</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>6.2276071472625143E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>1.2077878570528455</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>0.17873861696526328</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>31.301360451257651</v>
       </c>
     </row>
@@ -12672,25 +12672,25 @@
       <c r="B14" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>2.0023371201207908E-3</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>3.8874078560465812E-2</v>
       </c>
       <c r="E14" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>6.7499077516462058E-2</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>1.3092095058306539</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>0.16509147927164389</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>36.69025093871614</v>
       </c>
     </row>
@@ -12698,25 +12698,25 @@
       <c r="B15" s="2">
         <v>1.2</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>1.991147076137228E-3</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>3.8592252849558195E-2</v>
       </c>
       <c r="E15" s="2">
         <v>1.2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="15">
         <v>7.2533000488097812E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="15">
         <v>1.4076301290278703</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>0.15243610483961614</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="15">
         <v>43.035248428070012</v>
       </c>
     </row>
@@ -12724,25 +12724,25 @@
       <c r="B16" s="2">
         <v>1.3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>2.0037806376779791E-3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>3.8874032126811328E-2</v>
       </c>
       <c r="E16" s="2">
         <v>1.3</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>7.7400503445711616E-2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="15">
         <v>1.5025995258538845</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>0.14384404962221839</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <v>48.32993350456551</v>
       </c>
     </row>
@@ -12750,25 +12750,25 @@
       <c r="B17" s="2">
         <v>1.4</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>2.0003921959662932E-3</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>3.8827124468188076E-2</v>
       </c>
       <c r="E17" s="2">
         <v>1.4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>8.2221452330162398E-2</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="15">
         <v>1.5957439983140767</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <v>0.13528407877043197</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="15">
         <v>54.639488204301351</v>
       </c>
     </row>
@@ -12776,25 +12776,25 @@
       <c r="B18" s="2">
         <v>1.5</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>2.0001497441423455E-3</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>3.8827093714842331E-2</v>
       </c>
       <c r="E18" s="2">
         <v>1.5</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>8.6438548314723959E-2</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="15">
         <v>1.6776782651247606</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>0.12867696500615655</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="15">
         <v>60.394637927236445</v>
       </c>
     </row>
@@ -12802,25 +12802,25 @@
       <c r="B19" s="2">
         <v>1.6</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <v>2.002164782660628E-3</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>3.8850561254667196E-2</v>
       </c>
       <c r="E19" s="2">
         <v>1.6</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="15">
         <v>9.1438471925468487E-2</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="15">
         <v>1.7753053617895729</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <v>0.1216745298424461</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <v>67.546157204802611</v>
       </c>
     </row>
@@ -12828,25 +12828,25 @@
       <c r="B20" s="2">
         <v>1.7</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>1.9990427848997098E-3</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>3.8787978714324121E-2</v>
       </c>
       <c r="E20" s="2">
         <v>1.7</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>9.5982566890012236E-2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="15">
         <v>1.8630959996070546</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="15">
         <v>0.11575430483774737</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="15">
         <v>74.632106135011924</v>
       </c>
     </row>
@@ -12854,25 +12854,25 @@
       <c r="B21" s="2">
         <v>1.8</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="15">
         <v>1.9997615223873032E-3</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>3.8842840615393587E-2</v>
       </c>
       <c r="E21" s="2">
         <v>1.8</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="15">
         <v>9.8898728272981157E-2</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="15">
         <v>1.9193505071523866</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="15">
         <v>0.11252020257392069</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="15">
         <v>78.983975494509224</v>
       </c>
     </row>
@@ -12880,25 +12880,25 @@
       <c r="B22" s="2">
         <v>1.9</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="15">
         <v>2.0018306474084823E-3</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>3.8866304476748124E-2</v>
       </c>
       <c r="E22" s="2">
         <v>1.9</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="15">
         <v>0.10331041985020441</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <v>2.0053936424207572</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="15">
         <v>0.10775766376287121</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="15">
         <v>86.119929531479897</v>
       </c>
     </row>
@@ -12906,25 +12906,25 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="15">
         <v>2.0039273095510558E-3</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>3.887401214283933E-2</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="15">
         <v>0.10708530471962889</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="15">
         <v>2.0795936685412357</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="15">
         <v>0.10393382673560407</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="15">
         <v>92.573389272382116</v>
       </c>
     </row>
@@ -12932,25 +12932,25 @@
       <c r="B24" s="2">
         <v>2.1</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="15">
         <v>2.0025643657962692E-3</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="15">
         <v>3.8866235448411182E-2</v>
       </c>
       <c r="E24" s="2">
         <v>2.1</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="15">
         <v>0.11213853597859509</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="15">
         <v>2.1779306323139536</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="15">
         <v>9.9221097717306278E-2</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="15">
         <v>101.57619610658838</v>
       </c>
     </row>
@@ -13063,16 +13063,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
@@ -13775,7 +13775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E5D255-E5BF-4A77-BC16-4DDCB08C9EC4}">
   <dimension ref="D4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/Data/CV/Plots_CV.xlsx
+++ b/Data/CV/Plots_CV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Files\My Drive\Study_Stuff\Semester-8\Integrated_Laborotary_II\Experiment_1_LockInAmplifier_using_Expeyes\Codes_for_Expeyes\Data\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE10B8F-0EAB-42E8-BBE7-EC679BA68491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D19DBA-A280-42D7-83E2-6D0AE5027709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{D83F0066-2F64-4B59-AAE8-191E747E93A3}"/>
   </bookViews>
   <sheets>
     <sheet name="PolyCrystalline(Small)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -12372,7 +12372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351BDA27-9B22-455F-BD65-EF0CD4C88C6A}">
   <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -13775,8 +13775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E5D255-E5BF-4A77-BC16-4DDCB08C9EC4}">
   <dimension ref="D4:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
